--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D317D-3B19-4C18-AC4D-B8CB7B0C2892}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C3D94-2485-4AC0-88BC-868C345B5457}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="215">
   <si>
     <t>clause</t>
   </si>
@@ -688,6 +688,12 @@
   </si>
   <si>
     <t>Diagnostic</t>
+  </si>
+  <si>
+    <t>font-size</t>
+  </si>
+  <si>
+    <t>20pt</t>
   </si>
 </sst>
 </file>
@@ -730,19 +736,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D62867-CBAE-4169-B017-3CFEFD07BEDB}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>20190502</v>
+        <v>20190404</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1127,6 +1129,14 @@
       </c>
       <c r="G5" s="1" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1161,298 +1171,298 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D28" t="s">
@@ -1460,340 +1470,340 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1860,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14BAA64-950C-40D1-A72E-0C3C827DBAB0}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
